--- a/Datasheets/DataForm_UAS_BodyCondition_2024_NorsemanCruise.xlsx
+++ b/Datasheets/DataForm_UAS_BodyCondition_2024_NorsemanCruise.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heather.ziel\Work\2024_ice seal cruise\UAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heather.ziel\Work\2024_ice seal cruise\Planning\UAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>Flight #:</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t xml:space="preserve"> ship   small boat   ice floe</t>
+  </si>
+  <si>
+    <t>IF FOUND, PLEASE RETURN TO: Alaska Fisheries Science Center, Marine Mammal Lab, 7600 Sand Point Way NE, Seattle, WA 98115, fax: 206-526-6615</t>
   </si>
 </sst>
 </file>
@@ -944,61 +947,61 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1371,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1609,16 +1612,16 @@
       <c r="B13" s="11"/>
       <c r="C13" s="30"/>
       <c r="D13" s="22"/>
-      <c r="E13" s="71"/>
+      <c r="E13" s="55"/>
       <c r="G13" s="11" t="s">
         <v>26</v>
       </c>
       <c r="H13" s="30"/>
-      <c r="I13" s="72" t="s">
+      <c r="I13" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="72"/>
-      <c r="K13" s="73" t="s">
+      <c r="J13" s="57"/>
+      <c r="K13" s="56" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1634,10 +1637,10 @@
         <v>16</v>
       </c>
       <c r="H14" s="20"/>
-      <c r="I14" s="72" t="s">
+      <c r="I14" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="72"/>
+      <c r="J14" s="57"/>
       <c r="K14" s="37" t="s">
         <v>47</v>
       </c>
@@ -1714,20 +1717,20 @@
       <c r="C20" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="65"/>
-      <c r="F20" s="64" t="s">
+      <c r="E20" s="63"/>
+      <c r="F20" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="65"/>
-      <c r="H20" s="61" t="s">
+      <c r="G20" s="63"/>
+      <c r="H20" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="63"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="61"/>
     </row>
     <row r="21" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
@@ -1737,16 +1740,16 @@
       <c r="C21" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="70"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="68"/>
     </row>
     <row r="22" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
@@ -1756,16 +1759,16 @@
       <c r="C22" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
     </row>
     <row r="23" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
@@ -1775,16 +1778,16 @@
       <c r="C23" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
     </row>
     <row r="24" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
@@ -1794,16 +1797,16 @@
       <c r="C24" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="55"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
     </row>
     <row r="25" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
@@ -1813,16 +1816,16 @@
       <c r="C25" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
     </row>
     <row r="26" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
@@ -1832,16 +1835,16 @@
       <c r="C26" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="55"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
     </row>
     <row r="27" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
@@ -1851,16 +1854,16 @@
       <c r="C27" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="55"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
     </row>
     <row r="28" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
@@ -1870,16 +1873,16 @@
       <c r="C28" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="55"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
     </row>
     <row r="29" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
@@ -1889,19 +1892,41 @@
       <c r="C29" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="55"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+    </row>
+    <row r="37" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="F26:G26"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="D24:E24"/>
@@ -1917,34 +1942,14 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.3125" top="0.60416666666666696" bottom="0.57291666666666696" header="0.33" footer="0.16"/>
+  <pageMargins left="0.25" right="0.25" top="0.60416666666666696" bottom="0.52500000000000002" header="0.33" footer="0.16"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddHeader xml:space="preserve">&amp;L&amp;"Arial,Bold"UAS Body Condition: 2024 Norseman Cruise
 &amp;CFlight #___     &amp;RPage ___ of ___   </oddHeader>
-    <oddFooter>&amp;CIF FOUND, PLEASE RETURN TO: Alaska Fisheries Science Center, Marine Mammal Lab, 7600 Sand Point Way NE, Seattle, WA 98115, fax: 206-526-6615</oddFooter>
-    <firstHeader>&amp;L*Target Identifier = &amp;"Arial,Bold"SPENO&amp;"Arial,Regular" (if captured) -or- &amp;"Arial,Bold"NS24_YYYYMMDD_fl##_[letter]&amp;"Arial,Regular" (single letter in alphabetical order, if not captured)&amp;RPage 1 of __</firstHeader>
-    <firstFooter>&amp;L
-&amp;C
-IF FOUND, PLEASE RETURN TO: Alaska Fisheries Science Center, Marine Mammal Lab, 7600 Sand Point Way NE, Seattle, WA 98115, fax: 206-526-6615</firstFooter>
+    <firstHeader>&amp;RPage 1 of __</firstHeader>
+    <firstFooter>&amp;L*Target Identifier = &amp;"Arial,Bold"SPENO&amp;"Arial,Regular" (if captured) -or- &amp;"Arial,Bold"NS24_YYYYMMDD_fl##_[letter]&amp;"Arial,Regular" (single letter in alphabetical order, if not captured)</firstFooter>
   </headerFooter>
 </worksheet>
 </file>